--- a/archivos/detalleBarrilXSeccion.xlsx
+++ b/archivos/detalleBarrilXSeccion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Nicaragua\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AC1944-4B2B-4FD4-BCBA-C83A287A5A3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F07854-CD05-4FE3-B953-14619EFC9464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -287,10 +287,13 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -299,23 +302,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,11 +329,23 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,13 +437,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>771030</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
@@ -459,13 +459,20 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19080" y="0"/>
-          <a:ext cx="2765520" cy="804600"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2743200" cy="804825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -779,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,79 +812,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
     </row>
     <row r="2" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
@@ -890,96 +897,96 @@
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D7" s="6"/>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="O7" s="30" t="s">
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="O7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="Q9" s="4"/>
     </row>
     <row r="10" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="25"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="20" t="s">
+      <c r="G11" s="28"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="14" t="s">
+      <c r="J11" s="31"/>
+      <c r="K11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="14" t="s">
+      <c r="L11" s="17"/>
+      <c r="M11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="14" t="s">
+      <c r="N11" s="17"/>
+      <c r="O11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="14" t="s">
+      <c r="P11" s="17"/>
+      <c r="Q11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="R11" s="16"/>
+      <c r="R11" s="17"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="17"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="18"/>
       <c r="L12" s="19"/>
-      <c r="M12" s="17"/>
+      <c r="M12" s="18"/>
       <c r="N12" s="19"/>
-      <c r="O12" s="17"/>
+      <c r="O12" s="18"/>
       <c r="P12" s="19"/>
-      <c r="Q12" s="17"/>
+      <c r="Q12" s="18"/>
       <c r="R12" s="19"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
